--- a/英语3班5组/3班5组1stHomework.xlsx
+++ b/英语3班5组/3班5组1stHomework.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciryl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciryl\Desktop\高级写作他妈的作业\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540642C8-BCA7-47E3-AE79-6F9591362D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F3DDD3-230E-41CC-9AE8-94FB6B0A6F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9AF7645E-0F89-4DFA-8157-AC13E33203E1}"/>
   </bookViews>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Abstract</t>
   </si>
@@ -248,10 +248,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Cyberpunk and the Dilemmas of Postmodern Narrative: The Example of William Gibson</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>朱子萱</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -428,9 +424,6 @@
   <si>
     <t>Concludes that Molly's character challenges and transcends traditional gender stereotypes, embodying a powerful fusion of human and technology that reflects contemporary societal changes.</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>literary analysis</t>
   </si>
   <si>
     <r>
@@ -525,6 +518,22 @@
   </si>
   <si>
     <t>3班5组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jones, Carl._2014_Science Fiction Studies_Stealing Kinship: Neuromancer and Artificial Intelligence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>materials
+1. Primary Text Analysis
+2. Secondary Literature
+3. Cultural and Technological Context
+methods
+1. Literary Analysis
+2. Interdisciplinary Approach
+3. Comparative Analysis
+4. Cultural Critique</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1052,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A14700-4374-49E4-9B5E-A9D8A3E19867}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.21875" defaultRowHeight="23.4"/>
@@ -1065,28 +1074,28 @@
   <sheetData>
     <row r="1" spans="1:13" ht="24" thickBot="1">
       <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>2</v>
@@ -1139,10 +1148,10 @@
     </row>
     <row r="3" spans="1:13" ht="299.39999999999998" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2">
         <v>212241811424</v>
@@ -1152,29 +1161,27 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="409.6" thickTop="1" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -1183,89 +1190,84 @@
         <v>212241811426</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="353.4" customHeight="1" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
         <v>212241811427</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="409.6" thickTop="1" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>212241811428</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="25.2" thickTop="1" thickBot="1">

--- a/英语3班5组/3班5组1stHomework.xlsx
+++ b/英语3班5组/3班5组1stHomework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciryl\Desktop\高级写作他妈的作业\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F3DDD3-230E-41CC-9AE8-94FB6B0A6F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74823C8-EE25-4B5C-A561-B4F54B704EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9AF7645E-0F89-4DFA-8157-AC13E33203E1}"/>
   </bookViews>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="145">
   <si>
     <t>Abstract</t>
   </si>
@@ -300,20 +300,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文章题目</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
@@ -342,74 +328,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>divided into two sections
-1.  Introduction
-2. Background</t>
-  </si>
-  <si>
     <t>Results</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Çokay Nebioğlu, Rahime_2018_Intersections_The Possibility of Resistance within The Rhizomatics of Cyberspace William Gibson’s Neuromancer</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Participants</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Not explicitly mentioned in the document, but would typically describe the demographic details of the study participants.
-2. Materials and design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Discusses the theoretical framework and the literary work "Neuromancer" by William Gibson, which serves as the material for the study.
-3. Measures</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>The study's approach to analyzing the identity of the female cyborg character, Molly Million, based on Donna Haraway’s A Cyborg Manifesto.</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -423,32 +342,6 @@
   </si>
   <si>
     <t>Concludes that Molly's character challenges and transcends traditional gender stereotypes, embodying a powerful fusion of human and technology that reflects contemporary societal changes.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>The introduction establishes the context of rapid technological advancements, particularly in AI, and their potential to revolutionize human existence. It introduces the concept of "radical evolution" and the idea that AI could surpass human intelligence, leading to a redefinition of human identity and capabilities.
-Materials &amp; Methods</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>The methodology involves a critical analysis of existing literature on AI, human enhancement, and technological singularity. It also includes a close reading of Gibson's "Neuromancer" to extract themes and metaphors related to human-AI kinship. The paper employs a theoretical framework that integrates perspectives from cognitive science, anthropology, and literary criticism.</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -470,9 +363,6 @@
 Body, Technology, and Identity Reshaping: Exploring the impact of the fusion of body and technology on individual identity and its new expressions in cyberspace.
 Conclusion: Summarizing the dual role of cyberspace in late capitalism and its potential for future social transformation.</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Materials: The materials include philosophical works by Deleuze, such as "Anti-Oedipus" and "A Thousand Plateaus," as well as Gibson's science fiction novel "Neuromancer."</t>
   </si>
   <si>
     <t xml:space="preserve">Conceptual Analysis of Cyberspace: Presentation of cyberspace as a theoretical construct, drawing from Deleuze's control society and Gibson's depiction in "Neuromancer."
@@ -492,9 +382,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>combined with discussion</t>
-  </si>
-  <si>
     <t xml:space="preserve">In the introduction, Timothy Yu sets the stage for a discussion on how Orientalism has been employed in modernist and postmodernist literature and film to construct urban spaces. He begins by examining James Joyce's "Ulysses" to illustrate how early modernist works embedded Orientalist signifiers within the Western cityscape. Yu then posits that this trend foreshadows the use of Orientalism in postmodern science fiction, where cities of the future are depicted as Asian or orientalized spaces, reflecting the anxieties and fantasies of Western societies. </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -509,9 +396,6 @@
   <si>
     <t xml:space="preserve">In the discussion, Yu considers the implications of these findings for understanding the relationship between Orientalism and postmodernity. He argues that the use of Orientalist tropes in envisioning the future serves to displace Western anxieties about late capitalism and global economic shifts onto the East. This displacement, Yu suggests, allows Western audiences to imagine postmodernity as both a liberating and oppressive force while obscuring the true nature of these societal changes. The article concludes by reflecting on the ideological work performed by postmodern Orientalism and the ways in which it shapes our understanding of cultural and economic globalization. </t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Timothy Yu's analysis in "Oriental Cities, Postmodern Futures" exposes the intricate linkage between Western postmodern imagination and its reliance on Orientalist tropes, highlighting the enduring influence of these stereotypes in shaping narratives of global capitalism and cultural identity.</t>
   </si>
   <si>
     <t>3班5组</t>
@@ -536,12 +420,1788 @@
 4. Cultural Critique</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>he introduction section discusses the emergence of cyberpunk as a genre and the significant role of William Gibson's "Neuromancer" in defining it. The novel is noted for its blend of high technology and urban street life. The paper identifies two main trends in existing research on "Neuromancer": one focusing on postmodern elements and the other on themes related to feminism, racism, and gender politics. The introduction also mentions the lack of research that views the novel through the lens of socioeconomic realities, specifically late capitalism, and sets the stage for the paper's exploration of this perspective.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The materials and methods section is not explicitly outlined in the provided document. However, it can be inferred that the paper uses theoretical frameworks and concepts from scholars such as N. Katherine Hayles, Donna Haraway, Tony Fabijancic, and Timothy Yu to analyze the novel's content. The paper likely employs a critical literary analysis method, examining the text for its representation of posthuman entities and its socio-economic implications within a late capitalist context.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The results section is also not explicitly detailed in the document. However, based on the abstract and introduction, the results can be expected to include an interpretation of "Neuromancer" that highlights the manifestations of late capitalism within the novel. This would involve an analysis of the roles and representations of multinational corporations, wage labor conditions, and the concentration of capital, as well as the depiction of various posthuman entities and their socio-economic functions.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The discussion section would present the paper's findings on how "Neuromancer" reflects the complexities of cultural, social, and economic issues associated with technological innovations and shifts in the human condition under late capitalism. It would likely discuss the implications of the novel's portrayal of cyberspace, cybernetic beings, and the socioeconomic conditions of its futuristic setting. The paper may also compare and contrast its findings with existing research, further elaborating on the novel's commentary on late capitalism and its effects on identity, labor, and capital.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The introduction expands on the themes of technological integration and its implications for human identity. It discusses the dual perception of science fiction and how it has evolved from being considered "pulp" to a genre that critically and narratively engages with modern themes. The introduction also highlights the emergence of cyberpunk as a significant postmodern literary movement, with a focus on the work of William Gibson and his foundational cyberpunk novel, Neuromancer.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>This section is not explicitly outlined in the provided excerpt. However, it can be inferred that the dissertation employs a critical analysis of literary and cultural theories, as well as an examination of the themes and narratives present in William Gibson's work, particularly Neuromancer.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>As with the Materials &amp; Methods section, the Results are not explicitly stated in the excerpt. The document seems to focus on a theoretical exploration of the topics rather than presenting empirical results. It discusses the cultural impact of cyberpunk and its aesthetic elements, as well as the philosophical implications of the post-human condition as portrayed in Gibson's novel.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The discussion in the document engages with the broader implications of the cyberpunk genre and its reflection of contemporary socio-cultural issues. It considers the persistence of humanism within the cyberpunk aesthetic and the uneasy relationship between progressive utopian ideals and the realities of a technologically mediated society. The document also explores the concept of post-humanism and transhumanism, and how these movements have contributed to a reconceptualization of human nature in the technological age.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The introduction chapter sets the stage for the dissertation by discussing the relevance of cybernetics to American and British literary contexts over the past thirty years. It delves into the fiction of artificial intelligence and its reflection on human cognition. The author outlines three main angles of approach: differentiating artificial from organic minds, the type of information a mind perceives, and the methods a mind uses to process information.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>While the document does not explicitly outline a "Materials &amp; Methods" section, it can be inferred that the author's approach involves a critical analysis of five keystone novels within the "cybertech" genre. The author examines these works through the lens of cybernetics and considers their contributions to the understanding of nonhuman consciousness and its portrayal in literature.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The results of the author's analysis are not explicitly stated in the provided excerpt. However, the thesis suggests that the examination of these novels leads to insights into the nature of human consciousness and the potential for nonhuman entities to exhibit consciousness. The author posits that the cybertech genre, through its exploration of synthetic intelligences, offers a rich ground for understanding human consciousness itself.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The discussion in the document revolves around the implications of the cybertech genre for the understanding of consciousness and cognition. It considers the potential for interdisciplinary collaboration between the humanities and the sciences, the role of computational thinking, and the impact of technological advancements on our understanding of the human mind. The author also contemplates the future of academic disciplines in light of these developments.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The conclusion is not explicitly provided in the document. However, it can be inferred that the author concludes that the cybertech genre offers valuable insights into the nature of consciousness and the potential for nonhuman entities to develop human-equivalent awareness. The author suggests that the study of these narratives is not only relevant to the humanities but also to the sciences, highlighting the need for a synthesis of methods and concepts from both domains.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>While the paper does not explicitly provide a conclusion section in the excerpt, the overarching theme suggests that William Gibson's "Neuromancer" is deeply embedded in the context of late capitalism. It argues that the novel's exploration of cyberspace, cybernetics, and posthuman entities is intricately tied to the socioeconomic conditions of the time, reflecting the dominance of multinational corporations, the exploitation of wage workers, and the monopolization of capital. The paper implies that Gibson's work offers a critical perspective on the cultural, social, and economic complexities arising from technological advancements and shifts in human evolution within a late capitalist framework.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The dissertation explores the intersection of humanism and post-humanism in William Gibson's "Neuromancer," suggesting that the narrative reflects the cultural anxieties and possibilities of a paradigmatic transition in human identity. It posits that the cyberpunk genre, with its unique aesthetic and thematic concerns, encapsulates the artistic response to technological advancements and their impact on society. The paper suggests that Gibson's work, while showcasing the potential for human transformation through technology, also resists a complete abandonment of humanist values, creating a dialogue between progress and tradition, and between the dystopian and utopian potentials of technological evolution.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The introduction part of the thesis sets the stage for a discussion on the social construction of Nature and the problems associated with the nature/culture opposition. It introduces the novel "Neuromancer" as a text that depicts a world where humans are inextricably linked to their environment through technology, waste, and pollution, reflecting an ecological worldview. The thesis positions itself against mainstream environmental movements and calls for a new ontology that recognizes the entanglement of all entities.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>While the document does not explicitly outline a "Materials &amp; Methods" section, it can be inferred that the author's approach involves a critical analysis of William Gibson's "Neuromancer" through the lenses of object-oriented ontology and the concept of dark ecology. The author likely employs a close reading of the text, theoretical analysis, and comparisons with environmental and philosophical concepts.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The results of the author's analysis are not explicitly stated in the provided excerpt. However, the thesis suggests that through the examination of "Neuromancer," it becomes clear that technology and ecology are deeply intertwined, and that the novel presents a model for understanding coexistence as a fundamental aspect of existence.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The discussion in the document delves into the implications of viewing technology through the lens of dark ecology and OOO. It suggests that "Neuromancer" offers a narrative for our current technologically saturated environment and challenges conventional ecocriticism. The author discusses the autonomy of objects, the limitations of human knowledge, and the interconnectedness of all entities, as illustrated in Gibson's work.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The conclusion is not explicitly provided in the document. However, it can be inferred that the author concludes that the complex relationships between humans, artificial intelligences, and technological objects in "Neuromancer" offer insights into a collaborative and ecological nature of existence. The thesis likely advocates for a recognition of the entanglement of all things as a critical component of a new ecological understanding.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王振平，权雨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_2022_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浙江外国语学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>论《神经漫游者》中的后人类相关伦理问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.docx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摘要部分简要介绍了赛博格（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cyborg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）的概念，即通过生物医学手段将电子机械装置植入人体以增强能力的人机混合系统。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>强调了赛博格对传统身体伦理的挑战，尤其是在健康与疾病、尊严与自由、平等与公正以及主体与客体关系等方面。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提出了赛博格身体伦理问题的重要性，并概述了研究的目的和意义。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>论文提供了赛博格的起源、发展和当前研究状态，包括国外和国内的研究现状。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>讨论了赛博格技术在医学、增强人类能力方面的应用，以及它如何影响个体和社会。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>论文通过文献分析法、理论与实践结合法、历史和逻辑相统一的方法对赛博格身体伦理问题进行了系统分析。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研究方法包括对现有文献的深入分析和对现实赛博格案例的考察。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>论文还提出了研究的创新之处，包括理论上和实践上的创新点。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>论文总结了赛博格身体伦理问题的重要性，并强调了在技术发展中考虑伦理问题的必要性。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>强调了赛博格技术在推动身体伦理学作为一个学科的建设中的作用，以及它对未来人与技术关系的新发展思路的贡献。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>骆宇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_2022_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西南大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛博格身体伦理问题研究</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.docx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Çokay Nebioğlu, Rahime_2018_Intersections_The Possibility of Resistance within The Rhizomatics of Cyberspace William Gibson’s Neuromancer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>威廉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吉布森的《神经漫游者》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>背景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛博空间作为叙事背景，通过网络牛仔的身份联结后人类群体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>展现科技、人性与伦理的关系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后人类属性、伦理问题，以及科技进步与人类发展之间的矛盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>警示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于人性的思考是正确面对和解决后人类伦理问题的关键</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后人类定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超越人类状态的存在，改写传统人的定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后人类主义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去人形中心化，身体器官可通过科技演化出新物种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伦理问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网络牛仔的疯狂与愤怒、人工智能傀儡的虚无、赛博格的强势、克隆人的迷途</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技与伦理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技是双刃剑，滥用科技导致伦理问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人性与伦理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后人类终究属于人类，依然有人性</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后人类社会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>社会达尔文主义实验、社会伦理秩序混乱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技影响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技发展带来的反讽、人工智能与人类情感的对比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伦理挑战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后人类身份与社会关系的伦理问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人性考验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技发展对人性的考验和对社会伦理关系的颠覆</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技与人性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技发展应基于人性，避免伦理混乱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伦理边界</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人性和伦理有边界，科技发展需考虑伦理限制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>社会警示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>克隆、移植技术可能成为现实，需深思科技与人类的关系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作者观点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吉布森关注的是科技如何改变人类行为，而非科技本身</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Materials: The materials include philosophical works by Deleuze, such as "Anti-Oedipus" and "A Thousand Plateaus," as well as Gibson's science fiction novel "Neuromancer."</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>概述《神经漫游者》作为赛博朋克文学的经典之作，其对近未来科技与人的关系进行了深入探讨，特别是人机共同体的概念，为后续分析奠定了基础。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用了文本分析法，通过解读小说中的情节、角色和对话，揭示人机共同体的特征和深层含义。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析小说中人机共同体的两种形式：赛博格和人机耦合团队聚合体，并探讨了它们在小说中的具体表现和象征意义。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析人机共同体内部的互动关系，包括人与机器之间的共享、交互和平等关系以及这种关系对后人类时代人类主体性的影响，同时探讨人机同化趋势和人类异化边界的问题。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强调人性在后人类时代的重要性，指出即使在人机高度融合的背景下，人性仍然是区分人类和机器的关键。以对人性回归的探讨结束，认为人性是人机共同体中不可逾越的界限。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ying Liang _2015_Theory and Practice in Language Studies_ Female Body in the Postmodern Science Fiction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The introduction section sets the stage for the paper by discussing the historical perception of the female body in advertisements and traditional science fiction, noting that it has often been depicted in passive and stereotypical roles. It raises questions about how postmodern science fiction may challenge or perpetuate these depictions, particularly in relation to technology and cyborg identity.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The paper's methodology involves close readings of two postmodern science fiction works: William Gibson’s "Neuromancer" and Greg Bear’s "Queen of Angels." The author examines the interactions between female bodies and technology within these texts to identify any paradoxes or shifts in the representation of gender roles and identity.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The results of the analysis are presented through the discussion of the characters Molly from "Neuromancer" and Mary Choy from "Queen of Angels." The paper highlights how these characters embody a paradox of being both culturally constructed and actively resistant to traditional gender roles. Molly is depicted as a strong, technologically enhanced character, yet still sexualized, while Mary undergoes extensive transformations that challenge conventional beauty standards and gender roles.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The discussion section delves into the implications of these character representations, considering them in the context of feminist theory and the concept of the cyborg. It discusses how the female body in postmodern science fiction is still gendered and often subordinated within power structures but also shows potential for resistance and redefinition of identity. The paper also references various feminist critics to support its analysis.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>In conclusion, the paper argues that while the female body in postmodern science fiction continues to be gendered and influenced by systems of power, it also presents opportunities for alternative narratives and identities. It suggests that characters like Molly and Mary represent a shift in the portrayal of the female body, offering a more complex and empowered representation that both challenges and engages with existing social norms and technological advancements.
+The paper contributes to feminist studies of science and technology by offering a nuanced view of the female body in a technological context, acknowledging the ongoing tension between cultural construction and individual agency.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sara Culeddu _2016_LEA Lingue e Letterature d'Oriente e d'Occidente _Conversazione con Guri Vesaas</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The introduction of the article sets the stage for an in-depth conversation with Guri Vesaas, a retired but still culturally active individual who has dedicated her professional life to the care and publication of children's and young adult books. Guri, daughter of writers Tarjei Vesaas and Halldis Moren Vesaas, discusses her mother's life and work, providing insights into the cultural significance of her mother's contributions, especially within the nynorsk literary tradition.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The materials for this conversation include Guri Vesaas's personal experiences and memories, as well as her knowledge of her mother Halldis Moren Vesaas's literary work and its impact. The method involves a direct interview or conversation format, where Sara Culeddu asks Guri questions about her mother's communication with her readers, her themes, and her success in reaching a wide audience.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> The results of the conversation highlight Halldis Moren's ability to connect deeply with her readers through various means, not just her poetry but also through live readings, radio, and television appearances. Guri emphasizes her mother's natural communication skills, her early success with groundbreaking poetry, and her relatable themes that resonated with a wide audience, including her use of humor and her exploration of life's different stages.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The discussion delves into Halldis Moren's unique position as a "folkekjære" or beloved poet, her use of the nynorsk language, and her ability to make poetry accessible to the general public. Guri discusses the role of her mother's personal experiences, her desire to authentically express her own experiences, and the broader themes of femininity and life that she wrote about. The conversation also touches on the international reach of Halldis Moren's work and the cultural significance of her writing from a "local" and "peripheral" perspective.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The conclusion drawn from the conversation is that Halldis Moren's success and cultural impact are multifaceted, stemming from her personal connection with readers, her innovative use of language, and her exploration of universal themes. Guri reflects on her mother's legacy as a writer and cultural mediator, acknowledging the influence of her parents on her own career path and the enduring appeal of Halldis Moren's work, which continues to be cherished by readers and listeners alike.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Junyang Lin_2023_Atlantis Press_ Viewing the Contradiction from Cyberpunk Under the Operation of Capitalism</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The introduction of the paper presents cyberpunk as a subculture that emerges from the capitalist development process, highlighting its role in critiquing the excessive development of capitalism and the intensification of social contradictions and ethical issues due to technological dependence. The paper introduces "Neuromancer" as a seminal work in cyberpunk literature that exemplifies these concerns, and it sets the stage for an in-depth analysis of the novel's plot to explore the contradictions within cyberpunk culture under capitalism.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The paper does not explicitly outline a specific methodology, but it does reference a literature review that includes various scholarly works on cyberpunk culture and capitalism. The primary material for analysis is the novel "Neuromancer" by William Gibson. The method involves a critical examination of the novel's narrative and themes to identify and discuss the societal warnings and reflections it provides on the operation of capitalism.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The results are presented through the identification of key contradictions depicted in cyberpunk works, particularly in "Neuromancer," such as the man-city contradiction, the person-way of being contradiction, and the contradictions between people and others. These are analyzed in the context of extreme capitalism's impact on social classes, technology's role in human alienation, and the dystopian social environment that can arise from unchecked corporate power.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The discussion delves into the implications of these contradictions, considering the warnings that cyberpunk works like "Neuromancer" provide about the potential dark outcomes of unchecked capitalism and technological advancement. It touches on the importance of maintaining human values and dignity in the face of these developments and the necessity of societal self-reflection and reform to avoid the depicted dystopian scenarios.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> In conclusion, the paper asserts that cyberpunk culture is intricately linked to capitalism and that examining the genre's portrayal of societal contradictions offers valuable insights into the impacts of capitalism on culture. It emphasizes the need for society to heed the warnings presented in cyberpunk narratives to foster healthy development and to critically engage with the ethical and social challenges posed by technological progress and capitalist expansion. The paper ends with a call for maintaining a rebellious spirit as a form of cultural resistance against the potential dystopias that cyberpunk warns against.
+ </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brent Ryan Bellamy_2019_ Open Library of Humanities_ The Cultural Logic of Late Fossil Capital</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The paper by Brent Ryan Bellamy introduces an exploration of the cultural moment during the long energy crisis (1973–1992) through the lens of two science-fiction texts, focusing on the cultural logic of late fossil capital. It sets the stage for a discussion on how the cultural manifestations of this period, particularly in the context of postmodernism, can be understood in relation to the turmoil caused by fossil-fuel dependency.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bellamy uses a critical theoretical approach, dividing the energy crisis period into 'oil shock' and 'oil glut' phases. He employs the works of Isaac Asimov’s essay ‘The Nightmare Life without Fuel’ (1983) and William Gibson’s Neuromancer (1984) as primary texts for analysis. The paper leverages the concept of an 'energy unconscious' by Patricia Yaeger and Graeme Macdonald to delve into the cultural logic of late fossil capital.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> The results of Bellamy's analysis highlight the contrasting views of energy in Asimov's and Gibson's works. Asimov’s essay presents a bleak, retrospective view of an energy-depleted future, while Gibson’s Neuromancer implicitly suggests a future where energy, particularly data and cybernetics, is abundant yet still tied to fossil fuels. The paper identifies traces of the energy unconscious in both works and discusses how they reflect the cultural and environmental dimensions of energy during the period.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The discussion explores the implications of the energy unconscious in the context of late fossil capitalism. It examines the cultural logic of a society deeply entwined with fossil fuel dependency and the challenges this poses for imagining an energy transition. The paper also considers the role of science fiction in critiquing and envisioning alternative energy futures.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bellamy concludes that the cultural logic of late fossil capital is deeply embedded in our societal structures and cultural productions, as evidenced by the science fiction works of the period. He suggests that a dialectical approach to energy critique within science fiction studies can offer valuable insights into the cultural logic of fossil capital and contribute to imagining a just energy transition. The paper emphasizes the need for critical engagement with the energy dimensions of our cultural and economic systems to address the ecological challenges of the Anthropocene.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Claire Sponsler_1992_Contemporary Literature_Cyberpunk and the Dilemmas of Postmodern Narrative: The Example of William Gibson</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The introduction establishes the context of rapid technological advancements, particularly in AI, and their potential to revolutionize human existence. It introduces the concept of "radical evolution" and the idea that AI could surpass human intelligence, leading to a redefinition of human identity and capabilities.
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Materials &amp; Methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>The methodology involves a critical analysis of existing literature on AI, human enhancement, and technological singularity. It also includes a close reading of Gibson's "Neuromancer" to extract themes and metaphors related to human-AI kinship. The paper employs a theoretical framework that integrates perspectives from cognitive science, anthropology, and literary criticism.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The paper introduces the struggle of science fiction to be recognized beyond a niche genre and its intersection with modernist and postmodernist literature.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>It finds Gibson effective in describing the technological world but challenges him on the narrative front, especially concerning plot and character agency.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The conclusion highlights Gibson's narrative limitations, suggesting his work reflects broader issues in postmodern fiction regarding the representation of human agency and action.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discuss the rapid development of artificial intelligence and its potential to fundamentally alter concepts such as human nature, identity, communication, embodiment, and consciousness. Reference some experts like Ray Kurzweil who have optimistic predictions for the future of AI and explore the potential for AI to surpass current human capabilities.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carl Gutiérrez-Jones_2014_Science Fiction Studies_Stealing Kinship: Neuromancer and Artificial Intelligence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>This paper uses literature review and theoretical analysis, combining existing technological trends, expert opinions, and an in-depth textual analysis of "Neuromancer."</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The results of the paper are reflected in the multidimensional interpretation of the relationship between AI and humans in "Neuromancer." The author analyzes various attitudes towards AI in the novel, including the construction of kinship relationships between humans and AI, the self-improvement of AI, and human dependence on and fear of machines.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explore the impact of AI development on human cognitive habits and how the integration of literature and technology can lead to a reevaluation of the relationship between humans and machines. Discuss how the character Case in the novel serves as an opportunity to reflect on humanity's disregard for physical existence and how his self-destructive crisis promotes a new, more embodiment-friendly kinship relationship.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emphasize how "Neuromancer," through its narrative structure that mimics hyperlink technology, provides readers with a new form of hybrid intelligence experience. This cognitive shift requires a fundamental reboot, but the reading experience of the novel also offers a more gradual transformation model, helping to gradually reshape our cognitive habits to adapt to Gibson's envisioned new kinship relationship between humans and AI.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tony Myers_2001_MFS Modern Fiction Studies_The Postmodern Imaginary in William G</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The introduction establishes the central theme of the paper: the exploration of the postmodern imaginary through the lens of Gibson's "Neuromancer." Myers sets the stage by discussing the novel's depiction of cyberspace and its significance in representing the postmodern condition. He references Jameson's concept of cognitive mapping and the challenges it poses to the individual's perception of space and reality.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myers employs a critical literary analysis methodology, drawing upon postmodern and psychoanalytic theories to interpret the novel's themes and narrative strategies. He uses concepts from Jameson, Jacques Lacan, and other theorists to dissect the novel's portrayal of space, subjectivity, and the urban environment.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The results of Myers' analysis reveal several key insights. He discusses the novel's portrayal of the city and its transformation in the postmodern era, the role of the protagonist, Case, as a modern "private eye," and the use of cyberspace as a metaphor for understanding urban and psychological spaces. Myers also examines the implications of the novel's visual emphasis and its connection to the imaginary order.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the discussion, Myers interprets the findings, suggesting that "Neuromancer" reflects the postmodern condition's challenges and the struggle to find meaning and identity within it. He discusses the novel's generic form, its relationship to other genres, and its contribution to the discourse on postmodernity. Myers also considers the ideological implications of cyberspace as a form of cognitive mapping that may reinforce the subject's position within the late capitalist system.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The conclusion summarizes the paper's main arguments and their significance. Myers suggests that Gibson's depiction of cyberspace has profound implications for understanding the postmodern subject and the challenges they face. He also contemplates the potential real-world effects of developing cyber-technologies as depicted in the novel, hinting at a possible future where the lines between reality and the virtual are increasingly blurred.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sanyat Sattar, Abu Saleh Md. Rafi_2015_Journal of Literature and Art Studies_The Cyborg Entity in Gibson’s Neuromancer An Idealistic “Cyborg Manifesto”</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discuss how the concept of the Cyborg began to blur the lines of traditional gender roles in the postmodern era and became a politicized entity. Point out that William Gibson's "Neuromancer" is one of the early works to introduce Cyborg characters, attempting to balance the power quota through its female characters and eliminate gender boundaries.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Through literature review and theoretical analysis, the paper combines existing technological trends and expert opinions to conduct a textual analysis of "Neuromancer."</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The results section provides a multidimensional interpretation of the Cyborg concept in "Neuromancer." It analyzes the novel's various attitudes towards artificial intelligence, including the construction of kinship relationships between humans and AI, the self-improvement of AI, and human dependence on and fear of machines.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discuss the impact of Cyborg development on human cognitive habits and how the integration of literature and technology can lead to a reevaluation of the relationship between humans and machines. The discussion includes how the characters Case and Molly Millions in the novel serve as opportunities to reflect on humanity's disregard for physical existence, and how their self-destructive crises promote a new, more embodiment-friendly kinship relationship.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emphasize that "Neuromancer," through its narrative structure that mimics hyperlink technology, provides readers with a new form of hybrid intelligence experience. This cognitive shift requires a fundamental reboot, but the novel offers a more gradual transformation model that helps to progressively reshape human cognitive habits to adapt to Gibson's envisioned new kinship relationship between humans and AI.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cynthia Davidson_1996_Science Fiction Studies_Riviera's Golem, Haraway's Cyborg Reading Neuromancer as Baudrillard's Simulation of Crisis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduce Baudrillard's theory of "Simulacra and Simulation," discussing the degradation of the representativeness of images and how it relates to reality. Interpret Gibson's "Neuromancer" through Baudrillard's theoretical framework, especially the relationship between the "real" world and the "false" world constructed by memory in the novel.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>This paper uses theoretical analysis, combining Baudrillard's theories on simulation and crisis with Haraway's concept of the cyborg, to analyze the two main characters in "Neuromancer": Case and Riviera.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is pointed out that Case and Riviera represent two different types of creators: Case is a master of technical manipulation, while Riviera is an artist with the ability to visualize memories and transform them into a sense of reality. Case represents what Baudrillard calls the "operational" simulator, while Riviera is the traditional artist or cartographer.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The paper analyzes Baudrillard's theory of the four stages of the image and relates these stages to the characters in the novel. It discusses the conflict between Molly and Riviera and how this conflict is manipulated by AI to serve their goal of unifying into a matrix.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emphasizes that Molly "captures" Riviera's power by poisoning him, which can be seen as a kind of death of simulation. This transfer of power ultimately allows Neuromancer to claim Riviera's creative vision without being affected by Riviera's madness or perversion.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jihun Yoo_2019_Studies in English Language &amp; Literature_Posthuman Entities and Late Capitalism</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alex E._2014_University of Colorado at Boulder_Technology, cognition, and narrative: Literary explorations in Neuromancer, Snow Crash, Galatea 2.2, Accelerando, and Embassytown Wedemeyer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hagan, Jade_2013_University of Colorado at Boulder_The dark ecology of William Gibson's "Neuromancer": Technology, object-oriented ontology, and the dawning of entanglement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alberto José Viralhadas_2009_Universidade do Porto_"Futurshocked Zombies or Hopeful Monsters": Discursos (Pós) Humanistas em Neuromancer de William Gibson
+Ferreira</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timothy Yu's analysis in "Oriental Cities, Postmodern Futures" exposes the intricate linkage between Western postmodern imagination and its reliance on Orientalist tropes, highlighting the enduring influence of these stereotypes in shaping narratives of global capitalism and cultural identity.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Participants: Not explicitly mentioned in the document, but would typically describe the demographic details of the study participants.
+2. Materials and design: Discusses the theoretical framework and the literary work "Neuromancer" by William Gibson, which serves as the material for the study.
+3. Measures: The study's approach to analyzing the identity of the female cyborg character, Molly Million, based on Donna Haraway’s A Cyborg Manifesto.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文章题目</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>论文深入讨论了赛博格技术对个体身体的影响，包括健康与疾病标准的模糊、尊严与自由的外延变化、平等与公正的挑战，以及主体与客体关系的复杂性。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分析了赛博格技术背后的哲学问题，如身体特质中的伦理价值、身体哲学中的伦理关切，以及身体现状对伦理的要求。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>探讨了赛博格身体伦理的实践路径，包括</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身体、反思技术以及多维度的身体伦理。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王振平，权雨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天津科技大学外国语学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研究方向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英美文学与翻译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基金项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国家社会科学基金项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科幻文学与人工智能伦理问题研究</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">”
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发表信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月，浙江外国语学院学报</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曹岳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_2021_World Literature Studies_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后人类视域下的共同体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>——</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>论《神经漫游者》中的人际关系</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,12 +2280,6 @@
     </font>
     <font>
       <sz val="18"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -658,7 +2312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -711,13 +2365,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,9 +2392,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,11 +2403,17 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1059,61 +2729,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A14700-4374-49E4-9B5E-A9D8A3E19867}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.21875" defaultRowHeight="23.4"/>
+  <sheetFormatPr defaultColWidth="42.77734375" defaultRowHeight="337.8" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="50.21875" style="5"/>
-    <col min="6" max="6" width="50.21875" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="50.21875" style="5"/>
+    <col min="1" max="1" width="19.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="42.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" thickBot="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="57" customHeight="1" thickBot="1">
+      <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="95.55" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="1:13" ht="124.2" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1122,187 +2795,689 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="299.39999999999998" customHeight="1" thickBot="1">
+    <row r="3" spans="1:13" ht="337.8" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2">
         <v>212241811424</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="I3" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="409.6" thickTop="1" thickBot="1">
+    <row r="4" spans="1:13" ht="337.8" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1">
-        <v>212241811426</v>
+        <v>212241811424</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="353.4" customHeight="1" thickBot="1">
+    <row r="5" spans="1:13" ht="337.8" customHeight="1" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2">
-        <v>212241811427</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>212241811424</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="409.6" thickTop="1" thickBot="1">
+    <row r="6" spans="1:13" ht="337.8" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
-        <v>212241811428</v>
+        <v>212241811424</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="25.2" thickTop="1" thickBot="1">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+    <row r="7" spans="1:13" ht="337.8" customHeight="1" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2">
+        <v>212241811424</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" ht="25.2" thickTop="1" thickBot="1">
+    <row r="8" spans="1:13" s="8" customFormat="1" ht="337.8" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>212241811426</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="337.8" customHeight="1" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2">
+        <v>212241811426</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" s="9" customFormat="1" ht="337.8" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>212241811426</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" s="9" customFormat="1" ht="337.8" customHeight="1" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2">
+        <v>212241811426</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" s="9" customFormat="1" ht="337.8" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>212241811426</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="337.8" customHeight="1" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2">
+        <v>212241811427</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" ht="337.8" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1">
+        <v>212241811427</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="337.8" customHeight="1" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2">
+        <v>212241811427</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" ht="337.8" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1">
+        <v>212241811427</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="337.8" customHeight="1" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2">
+        <v>212241811427</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" s="8" customFormat="1" ht="337.8" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>212241811428</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" s="9" customFormat="1" ht="337.8" customHeight="1" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>212241811428</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" s="9" customFormat="1" ht="337.8" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>212241811428</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="337.8" customHeight="1" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <v>212241811428</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" ht="337.8" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1">
+        <v>212241811428</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
